--- a/Payroll.xlsx
+++ b/Payroll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Payroll_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Source Code\Payroll_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476AE14A-9E97-48E6-A1E1-4AA53B372728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB403C-114E-41CE-AF30-F503D12AF552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B6730CF-BB45-46AE-99AA-55E71458E9BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9B6730CF-BB45-46AE-99AA-55E71458E9BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>发薪月</t>
   </si>
@@ -146,31 +146,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wangzh@highly-whnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计薪月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
+    <t>446126889@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dongm@highly-whnet.com</t>
+    <t>zhihonwang@foxmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洪路</t>
+    <t>zhihonwang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>honglu@highly-whnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董敏</t>
+    <t>wangzhihong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,33 +543,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1ED553-9397-4390-96B8-E71FB6A3255C}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.25" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>33</v>
@@ -682,7 +675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -690,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -789,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -899,117 +892,7 @@
         <v>31</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>100000</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>11</v>
-      </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="Q4">
-        <v>13</v>
-      </c>
-      <c r="R4">
-        <v>14</v>
-      </c>
-      <c r="S4">
-        <v>15</v>
-      </c>
-      <c r="T4">
-        <v>16</v>
-      </c>
-      <c r="U4">
-        <v>17</v>
-      </c>
-      <c r="V4">
-        <v>18</v>
-      </c>
-      <c r="W4">
-        <v>19</v>
-      </c>
-      <c r="X4">
-        <v>20</v>
-      </c>
-      <c r="Y4">
-        <v>21</v>
-      </c>
-      <c r="Z4">
-        <v>22</v>
-      </c>
-      <c r="AA4">
-        <v>23</v>
-      </c>
-      <c r="AB4">
-        <v>24</v>
-      </c>
-      <c r="AC4">
-        <v>25</v>
-      </c>
-      <c r="AD4">
-        <v>26</v>
-      </c>
-      <c r="AE4">
-        <v>27</v>
-      </c>
-      <c r="AF4">
-        <v>28</v>
-      </c>
-      <c r="AG4">
-        <v>29</v>
-      </c>
-      <c r="AH4">
-        <v>30</v>
-      </c>
-      <c r="AI4">
-        <v>31</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1017,9 +900,8 @@
   <hyperlinks>
     <hyperlink ref="AJ2" r:id="rId1" xr:uid="{44B1B55C-2CB8-438F-8E04-A8A1527A4FC1}"/>
     <hyperlink ref="AJ3" r:id="rId2" xr:uid="{6C2C501D-9DDB-437A-B13C-FDCA4D36576A}"/>
-    <hyperlink ref="AJ4" r:id="rId3" xr:uid="{D19DFC5A-4527-4174-8314-86A0F47DF6DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Payroll.xlsx
+++ b/Payroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Source Code\Payroll_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB403C-114E-41CE-AF30-F503D12AF552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A68CD4-AEAF-4AF0-92A8-E525256BF6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9B6730CF-BB45-46AE-99AA-55E71458E9BB}"/>
   </bookViews>
@@ -154,15 +154,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhihonwang@foxmail.com</t>
+    <t>wangzh@highly-whnet.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhihonwang</t>
+    <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wangzhihong</t>
+    <t>李四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +546,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Payroll.xlsx
+++ b/Payroll.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Source Code\Payroll_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Payroll_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A68CD4-AEAF-4AF0-92A8-E525256BF6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9B6730CF-BB45-46AE-99AA-55E71458E9BB}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>发薪月</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>企龄津贴</t>
   </si>
@@ -146,19 +142,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计薪月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>446126889@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wangzh@highly-whnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,366 +526,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1ED553-9397-4390-96B8-E71FB6A3255C}">
-  <dimension ref="A1:AJ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2">
+        <v>100000</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="Y2">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AB2">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AC2">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AE2">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AG2">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>100000</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>11</v>
-      </c>
-      <c r="P3">
-        <v>12</v>
-      </c>
-      <c r="Q3">
-        <v>13</v>
-      </c>
-      <c r="R3">
-        <v>14</v>
-      </c>
-      <c r="S3">
-        <v>15</v>
-      </c>
-      <c r="T3">
-        <v>16</v>
-      </c>
-      <c r="U3">
-        <v>17</v>
-      </c>
-      <c r="V3">
-        <v>18</v>
-      </c>
-      <c r="W3">
-        <v>19</v>
-      </c>
-      <c r="X3">
-        <v>20</v>
-      </c>
-      <c r="Y3">
-        <v>21</v>
-      </c>
-      <c r="Z3">
-        <v>22</v>
-      </c>
-      <c r="AA3">
-        <v>23</v>
-      </c>
-      <c r="AB3">
-        <v>24</v>
-      </c>
-      <c r="AC3">
-        <v>25</v>
-      </c>
-      <c r="AD3">
-        <v>26</v>
-      </c>
-      <c r="AE3">
-        <v>27</v>
-      </c>
-      <c r="AF3">
-        <v>28</v>
-      </c>
-      <c r="AG3">
-        <v>29</v>
-      </c>
-      <c r="AH3">
-        <v>30</v>
-      </c>
-      <c r="AI3">
-        <v>31</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AJ2" r:id="rId1" xr:uid="{44B1B55C-2CB8-438F-8E04-A8A1527A4FC1}"/>
-    <hyperlink ref="AJ3" r:id="rId2" xr:uid="{6C2C501D-9DDB-437A-B13C-FDCA4D36576A}"/>
+    <hyperlink ref="AH2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>